--- a/municipal/ENG/byOrganization-legalForms/Number of registered entities by organizational-legal form/Adjara A.R/Keda.xlsx
+++ b/municipal/ENG/byOrganization-legalForms/Number of registered entities by organizational-legal form/Adjara A.R/Keda.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\მუნიციპალიტეტები\ბიზნეს რეგისტრი\ENG\Number of registered entities by organizational-legal form\Adjara\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Number of registered entities by organizational-legal form\Adjara A.R\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96050B60-D4A7-4BF9-BCE1-E13EC43BB405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keda" sheetId="1" r:id="rId1"/>
@@ -77,12 +78,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="###0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +138,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -152,20 +161,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -224,7 +224,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -232,10 +234,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -246,39 +286,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,630 +604,712 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
+    <col min="2" max="13" width="8.7109375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
         <v>2010</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="13">
         <v>2011</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="13">
         <v>2012</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="13">
         <v>2013</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="13">
         <v>2014</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="13">
         <v>2015</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="13">
         <v>2016</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="13">
         <v>2017</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="13">
         <v>2018</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="13">
         <v>2019</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="13">
         <v>2020</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="N3" s="14">
+        <v>2022</v>
+      </c>
+      <c r="O3" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>924</v>
-      </c>
-      <c r="C4" s="5">
-        <v>998</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1056</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1153</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1248</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1376</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1515</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1703</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1833</v>
-      </c>
-      <c r="K4" s="5">
-        <v>1976</v>
-      </c>
-      <c r="L4" s="5">
-        <v>2072</v>
-      </c>
-      <c r="M4" s="5">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="15">
+        <v>916</v>
+      </c>
+      <c r="C4" s="16">
+        <v>991</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1050</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1146</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1242</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1372</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1511</v>
+      </c>
+      <c r="I4" s="16">
+        <v>1697</v>
+      </c>
+      <c r="J4" s="16">
+        <v>1829</v>
+      </c>
+      <c r="K4" s="16">
+        <v>1970</v>
+      </c>
+      <c r="L4" s="16">
+        <v>2065</v>
+      </c>
+      <c r="M4" s="16">
+        <v>2181</v>
+      </c>
+      <c r="N4" s="16">
+        <v>2329</v>
+      </c>
+      <c r="O4" s="16">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="17">
         <v>179</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>194</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>207</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>237</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>272</v>
       </c>
-      <c r="G5" s="6">
-        <v>303</v>
-      </c>
-      <c r="H5" s="6">
-        <v>353</v>
-      </c>
-      <c r="I5" s="6">
-        <v>409</v>
-      </c>
-      <c r="J5" s="6">
-        <v>449</v>
-      </c>
-      <c r="K5" s="6">
-        <v>490</v>
-      </c>
-      <c r="L5" s="6">
+      <c r="G5" s="4">
+        <v>304</v>
+      </c>
+      <c r="H5" s="4">
+        <v>354</v>
+      </c>
+      <c r="I5" s="4">
+        <v>410</v>
+      </c>
+      <c r="J5" s="4">
+        <v>451</v>
+      </c>
+      <c r="K5" s="4">
+        <v>491</v>
+      </c>
+      <c r="L5" s="4">
         <v>527</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <v>579</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="N5" s="4">
+        <v>622</v>
+      </c>
+      <c r="O5" s="4">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="B7" s="17">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
         <v>9</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>9</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>9</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>9</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>9</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <v>9</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>9</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="4">
         <v>9</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="4">
         <v>9</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="N7" s="4">
+        <v>9</v>
+      </c>
+      <c r="O7" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="B8" s="17">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>14</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>32</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>41</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <v>45</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <v>47</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="4">
         <v>49</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="4">
         <v>49</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="4">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="N8" s="4">
+        <v>49</v>
+      </c>
+      <c r="O8" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
-        <v>650</v>
-      </c>
-      <c r="C9" s="6">
-        <v>715</v>
-      </c>
-      <c r="D9" s="6">
-        <v>760</v>
-      </c>
-      <c r="E9" s="6">
-        <v>825</v>
-      </c>
-      <c r="F9" s="6">
-        <v>873</v>
-      </c>
-      <c r="G9" s="6">
-        <v>947</v>
-      </c>
-      <c r="H9" s="6">
-        <v>996</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1096</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1179</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1274</v>
-      </c>
-      <c r="L9" s="6">
-        <v>1331</v>
-      </c>
-      <c r="M9" s="6">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="B9" s="17">
+        <v>642</v>
+      </c>
+      <c r="C9" s="4">
+        <v>708</v>
+      </c>
+      <c r="D9" s="4">
+        <v>754</v>
+      </c>
+      <c r="E9" s="4">
+        <v>818</v>
+      </c>
+      <c r="F9" s="4">
+        <v>867</v>
+      </c>
+      <c r="G9" s="4">
+        <v>942</v>
+      </c>
+      <c r="H9" s="4">
+        <v>991</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1089</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1172</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1266</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1323</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1384</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1487</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="17">
         <v>0</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>0</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>0</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <v>0</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="4">
         <v>0</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="17">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4">
+        <v>10</v>
+      </c>
+      <c r="J11" s="4">
+        <v>10</v>
+      </c>
+      <c r="K11" s="4">
+        <v>10</v>
+      </c>
+      <c r="L11" s="4">
+        <v>10</v>
+      </c>
+      <c r="M11" s="4">
+        <v>10</v>
+      </c>
+      <c r="N11" s="4">
+        <v>10</v>
+      </c>
+      <c r="O11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="17">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4">
+        <v>24</v>
+      </c>
+      <c r="E12" s="4">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4">
+        <v>25</v>
+      </c>
+      <c r="G12" s="4">
+        <v>26</v>
+      </c>
+      <c r="H12" s="4">
+        <v>38</v>
+      </c>
+      <c r="I12" s="4">
+        <v>41</v>
+      </c>
+      <c r="J12" s="4">
+        <v>47</v>
+      </c>
+      <c r="K12" s="4">
+        <v>51</v>
+      </c>
+      <c r="L12" s="4">
+        <v>52</v>
+      </c>
+      <c r="M12" s="4">
+        <v>55</v>
+      </c>
+      <c r="N12" s="4">
+        <v>56</v>
+      </c>
+      <c r="O12" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4">
+        <v>30</v>
+      </c>
+      <c r="F13" s="4">
+        <v>30</v>
+      </c>
+      <c r="G13" s="4">
+        <v>30</v>
+      </c>
+      <c r="H13" s="4">
+        <v>30</v>
+      </c>
+      <c r="I13" s="4">
+        <v>30</v>
+      </c>
+      <c r="J13" s="4">
+        <v>30</v>
+      </c>
+      <c r="K13" s="4">
+        <v>30</v>
+      </c>
+      <c r="L13" s="4">
+        <v>30</v>
+      </c>
+      <c r="M13" s="4">
+        <v>30</v>
+      </c>
+      <c r="N13" s="4">
+        <v>30</v>
+      </c>
+      <c r="O13" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17">
         <v>7</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C14" s="4">
         <v>7</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D14" s="4">
         <v>7</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E14" s="4">
         <v>7</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F14" s="4">
         <v>7</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G14" s="4">
         <v>7</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H14" s="4">
         <v>7</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I14" s="4">
         <v>7</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J14" s="4">
         <v>7</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K14" s="4">
         <v>7</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L14" s="4">
         <v>7</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M14" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6">
-        <v>29</v>
-      </c>
-      <c r="C12" s="6">
-        <v>23</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="N14" s="4">
+        <v>7</v>
+      </c>
+      <c r="O14" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="17">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4">
         <v>24</v>
       </c>
-      <c r="E12" s="6">
-        <v>25</v>
-      </c>
-      <c r="F12" s="6">
-        <v>25</v>
-      </c>
-      <c r="G12" s="6">
-        <v>26</v>
-      </c>
-      <c r="H12" s="6">
-        <v>38</v>
-      </c>
-      <c r="I12" s="6">
-        <v>41</v>
-      </c>
-      <c r="J12" s="6">
-        <v>46</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="I15" s="4">
+        <v>49</v>
+      </c>
+      <c r="J15" s="4">
+        <v>49</v>
+      </c>
+      <c r="K15" s="4">
         <v>50</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L15" s="4">
         <v>51</v>
       </c>
-      <c r="M12" s="6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6">
-        <v>30</v>
-      </c>
-      <c r="C13" s="6">
-        <v>30</v>
-      </c>
-      <c r="D13" s="6">
-        <v>30</v>
-      </c>
-      <c r="E13" s="6">
-        <v>30</v>
-      </c>
-      <c r="F13" s="6">
-        <v>30</v>
-      </c>
-      <c r="G13" s="6">
-        <v>30</v>
-      </c>
-      <c r="H13" s="6">
-        <v>30</v>
-      </c>
-      <c r="I13" s="6">
-        <v>30</v>
-      </c>
-      <c r="J13" s="6">
-        <v>30</v>
-      </c>
-      <c r="K13" s="6">
-        <v>30</v>
-      </c>
-      <c r="L13" s="6">
-        <v>30</v>
-      </c>
-      <c r="M13" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6">
-        <v>7</v>
-      </c>
-      <c r="C14" s="6">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6">
-        <v>7</v>
-      </c>
-      <c r="E14" s="6">
-        <v>7</v>
-      </c>
-      <c r="F14" s="6">
-        <v>7</v>
-      </c>
-      <c r="G14" s="6">
-        <v>7</v>
-      </c>
-      <c r="H14" s="6">
-        <v>7</v>
-      </c>
-      <c r="I14" s="6">
-        <v>7</v>
-      </c>
-      <c r="J14" s="6">
-        <v>7</v>
-      </c>
-      <c r="K14" s="6">
-        <v>7</v>
-      </c>
-      <c r="L14" s="6">
-        <v>7</v>
-      </c>
-      <c r="M14" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>5</v>
-      </c>
-      <c r="H15" s="6">
-        <v>24</v>
-      </c>
-      <c r="I15" s="6">
-        <v>49</v>
-      </c>
-      <c r="J15" s="6">
-        <v>49</v>
-      </c>
-      <c r="K15" s="6">
-        <v>50</v>
-      </c>
-      <c r="L15" s="6">
+      <c r="M15" s="4">
         <v>51</v>
       </c>
-      <c r="M15" s="6">
+      <c r="N15" s="4">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="O15" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="14">
-        <v>9</v>
-      </c>
-      <c r="C16" s="14">
-        <v>9</v>
-      </c>
-      <c r="D16" s="14">
-        <v>9</v>
-      </c>
-      <c r="E16" s="14">
-        <v>9</v>
-      </c>
-      <c r="F16" s="14">
-        <v>9</v>
-      </c>
-      <c r="G16" s="14">
-        <v>9</v>
-      </c>
-      <c r="H16" s="14">
-        <v>9</v>
-      </c>
-      <c r="I16" s="14">
-        <v>9</v>
-      </c>
-      <c r="J16" s="14">
-        <v>9</v>
-      </c>
-      <c r="K16" s="14">
-        <v>9</v>
-      </c>
-      <c r="L16" s="14">
-        <v>9</v>
-      </c>
-      <c r="M16" s="14">
-        <v>9</v>
+      <c r="B16" s="18">
+        <v>6</v>
+      </c>
+      <c r="C16" s="19">
+        <v>6</v>
+      </c>
+      <c r="D16" s="19">
+        <v>6</v>
+      </c>
+      <c r="E16" s="19">
+        <v>6</v>
+      </c>
+      <c r="F16" s="19">
+        <v>6</v>
+      </c>
+      <c r="G16" s="19">
+        <v>6</v>
+      </c>
+      <c r="H16" s="19">
+        <v>6</v>
+      </c>
+      <c r="I16" s="19">
+        <v>6</v>
+      </c>
+      <c r="J16" s="19">
+        <v>6</v>
+      </c>
+      <c r="K16" s="19">
+        <v>6</v>
+      </c>
+      <c r="L16" s="19">
+        <v>6</v>
+      </c>
+      <c r="M16" s="19">
+        <v>6</v>
+      </c>
+      <c r="N16" s="19">
+        <v>6</v>
+      </c>
+      <c r="O16" s="19">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1285,25 +1413,8 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>